--- a/converting_test_cases.xlsx
+++ b/converting_test_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="example to be deleted" sheetId="2" r:id="rId1"/>
@@ -1022,7 +1022,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="96">
   <si>
     <t>Comments</t>
   </si>
@@ -1167,10 +1167,6 @@
     <t>Sample Test Cases</t>
   </si>
   <si>
-    <t>????? Tester's Name ?????
-????? Date ?????</t>
-  </si>
-  <si>
     <t>Converting</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1379,6 +1375,68 @@
   </si>
   <si>
     <t>The program should ignore the spaces or need to mention how is it functionable.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChuTing Tsai
+2022/12/10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChuTing Tsai
+2022/12/12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The program can work properly.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12345</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901234567890</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>double case</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The program can work properly with double cases.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>555</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1891,7 +1949,49 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2436,18 +2536,18 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>ISNUMBER(SEARCH("PASS",$E3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>ISNUMBER(SEARCH("FAIL",$E3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2460,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2582,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="41" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
@@ -2505,7 +2605,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2533,10 +2633,10 @@
     </row>
     <row r="4" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="37">
         <v>1</v>
@@ -2546,41 +2646,41 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>57</v>
       </c>
       <c r="E5" s="37">
         <v>2147483647</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="37">
         <v>12345</v>
@@ -2590,42 +2690,42 @@
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="37">
         <v>0</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="37">
         <v>12345</v>
@@ -2634,31 +2734,31 @@
         <v>1</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
@@ -2691,7 +2791,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2719,138 +2819,138 @@
     </row>
     <row r="14" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="37">
         <v>123</v>
       </c>
       <c r="D14" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>61</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="38">
         <v>-123</v>
       </c>
       <c r="D15" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="F15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="38" t="s">
+      <c r="F16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="D17" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="E17" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="F17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="F18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>45</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>46</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2865,7 +2965,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2892,46 +2992,163 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="25"/>
+      <c r="A22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="37">
+        <v>12345</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="25"/>
+      <c r="A23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="38">
+        <v>-12345</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="37">
+        <v>2147483647</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="25"/>
+      <c r="A28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
@@ -2944,6 +3161,12 @@
       <c r="B30" s="28"/>
       <c r="E30" s="3"/>
       <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2953,20 +3176,36 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="F4:F13 F20:F1048576">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="F4:F13 F20:F21 F29:F1048576">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F19">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>ISNUMBER(SEARCH("PASS",$F14))</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>ISNUMBER(SEARCH("FAIL",$F14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F24 F26:F28">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>ISNUMBER(SEARCH("PASS",$F22))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>ISNUMBER(SEARCH("FAIL",$F22))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISNUMBER(SEARCH("PASS",$F25))</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ISNUMBER(SEARCH("FAIL",$F14))</formula>
+      <formula>ISNUMBER(SEARCH("FAIL",$F25))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
